--- a/biology/Zoologie/Hexanchus_nakamurai/Hexanchus_nakamurai.xlsx
+++ b/biology/Zoologie/Hexanchus_nakamurai/Hexanchus_nakamurai.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Requin-vache
 Le requin-vache (Hexanchus nakamurai) est une espèce de requin de l'ordre des Hexanchiformes.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce requin a un corps élancé, une tête étroite avec une petite bouche et de grands yeux. Sa nageoire caudale a une profonde encoche subterminale.
 Il peut mesurer jusqu'à 1,8 m
@@ -545,7 +559,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le requin-vache vit localement dans les eaux tempérées chaudes et tropicales.
 </t>
@@ -576,7 +592,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il vit sur ou près du fond, de 90 à 621 m et remonte occasionnellement près de la surface et des côtes.
 </t>
@@ -607,7 +625,9 @@
           <t>Imagerie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Hexanchus nakamurai, corps
